--- a/Полезные советы(список врачей).xlsx
+++ b/Полезные советы(список врачей).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavel_admin\Documents\GitHub\Bootstrap2017\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Гриднева Л. А. (врач-терапевт)</t>
   </si>
@@ -65,9 +60,6 @@
     <t>Бердниченко Г. Б. (заведующая поликлиникой для взрослых)</t>
   </si>
   <si>
-    <t>Вербицкая Р. М.</t>
-  </si>
-  <si>
     <t>Григорьевская Т. И. (врач-терапевт)</t>
   </si>
   <si>
@@ -129,12 +121,18 @@
   </si>
   <si>
     <t>Шувалова В. И. (врач-офтальмолог - заслуженный врач РФ)</t>
+  </si>
+  <si>
+    <t>Плужникова Н. В. (врач-терапевт участковый)</t>
+  </si>
+  <si>
+    <t>Вербицкая Р. М. (заместитель главного врача по клинико-экспертной работе)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -262,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +488,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -500,12 +498,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -515,27 +513,27 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -550,17 +548,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -570,22 +568,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -595,47 +593,52 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A35">
-    <sortState ref="A2:A35">
+    <sortState ref="A2:A36">
       <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>

--- a/Полезные советы(список врачей).xlsx
+++ b/Полезные советы(список врачей).xlsx
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Гриднева Л. А. (врач-терапевт)</t>
-  </si>
-  <si>
     <t>Бородкина А. В. (Врач-гастроэнтеролог)</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Вербицкая Р. М. (заместитель главного врача по клинико-экспертной работе)</t>
+  </si>
+  <si>
+    <t>Гриднева Л. А. (врач-акушер-гинеколог)</t>
   </si>
 </sst>
 </file>
@@ -143,12 +143,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,8 +175,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +463,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,178 +477,178 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
